--- a/biology/Botanique/Xerocomellus_ripariellus/Xerocomellus_ripariellus.xlsx
+++ b/biology/Botanique/Xerocomellus_ripariellus/Xerocomellus_ripariellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet des rives, Bolet des bords de mares
 Xerocomellus ripariellus, le Bolet des rives, est une espèce de champignon (Fungi) basidiomycète du genre Xerocomellus dans la famille des Boletaceae. Comestible moyen, il est caractérisé par son chapeau rosâtre typiquement finement craquelé, sa chair légèrement plus au moins bleuissante au niveau du pied à la coupe et à son habitat sur sol et endroits humides.
@@ -512,59 +524,237 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus ripariellus (Redeuilh) Šutara[1].
-L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus ripariellus Redeuilh[1].
-Synonymes
-Xerocomellus ripariellus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xerocomellus ripariellus (Redeuilh) Šutara.
+L'espèce a été initialement classée dans le genre Xerocomus sous le basionyme Xerocomus ripariellus Redeuilh.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Xerocomellus ripariellus a pour synonymes :
 Boletellus ripariellus (Redeuilh) Redeuilh
 Boletus ripariellus (Redeuilh) Watling &amp; A.E.Hills
 Xerocomus catalaunicus Pöder, G.Moreno, Rocabruna &amp; Tabarés
-Xerocomus ripariellus Redeuilh
-Phylogénie
-Cette espèce a été décrite par Guy Redeuilh en 1997, sous le nom de Xerocomus ripariellus. Des études phylogénétiques ont révélé que le genre Xerocomus était un taxon polyphylétique et qu'il était divisé en plusieurs autres genres. Le nom actuel reconnu par Index Fungorum a été donné à cette espèce en 2008 par Josef Šutara, qui l'a transférée dans le genre Xerocomellus.
-Étymologie
-L'épithète spécifique ripariellus fait référence à l'habitat riverain de ce bolet, "Dans les zones humides ou sur les berges des cours d'eau, sous des Quercus ou des Salix", selon l'article original de 1997.
-Noms vulgaires et vernaculaires
-Bolet des rives, Bolet des bords de mares.
+Xerocomus ripariellus Redeuilh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Guy Redeuilh en 1997, sous le nom de Xerocomus ripariellus. Des études phylogénétiques ont révélé que le genre Xerocomus était un taxon polyphylétique et qu'il était divisé en plusieurs autres genres. Le nom actuel reconnu par Index Fungorum a été donné à cette espèce en 2008 par Josef Šutara, qui l'a transférée dans le genre Xerocomellus.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Xerocomellus_ripariellus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique ripariellus fait référence à l'habitat riverain de ce bolet, "Dans les zones humides ou sur les berges des cours d'eau, sous des Quercus ou des Salix", selon l'article original de 1997.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolet des rives, Bolet des bords de mares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Xerocomellus ripariellus, le Bolet des rives, sont les suivantes :
-Son chapeau mesure de 3 à 10 cm, le plus souvent rougeâtre ou rose-rouge, pâlissant à beige rosâtre, voire gris brunâtre, se craquelant en commençant par le bord, et d'abord radialement, puis en tous sens[2].
-L'hyménophore présente des tubes d'abord blanchâtres ou jaunes, puis jaune olivâtre plus au moins bleuissants. Les pores sont concolores aux tubes[2].
-Son stipe mesure 3 à 8 cm x 1 à 2,5 cm, d'abord jaune puis plus au moins rougeâtre, souvent marqué de ponctuations rougeâtres[2].
-La chair est blanc jaunâtre ou jaune pâle ou blanc crème, un peu brunâtre en bas du pied, et bleuissant souvent dans le pied à la mi-hauteur à la coupe. Sa saveur est douce et son odeur est faible[2].
-Caractéristiques microscopiques
-Ses spores mesurent 11 à 14 μm x 4,5 à 5 μm, allongées-fusoïdes, longitudinalement striées (stries très fines et difficiles à voir)[2].
+Son chapeau mesure de 3 à 10 cm, le plus souvent rougeâtre ou rose-rouge, pâlissant à beige rosâtre, voire gris brunâtre, se craquelant en commençant par le bord, et d'abord radialement, puis en tous sens.
+L'hyménophore présente des tubes d'abord blanchâtres ou jaunes, puis jaune olivâtre plus au moins bleuissants. Les pores sont concolores aux tubes.
+Son stipe mesure 3 à 8 cm x 1 à 2,5 cm, d'abord jaune puis plus au moins rougeâtre, souvent marqué de ponctuations rougeâtres.
+La chair est blanc jaunâtre ou jaune pâle ou blanc crème, un peu brunâtre en bas du pied, et bleuissant souvent dans le pied à la mi-hauteur à la coupe. Sa saveur est douce et son odeur est faible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xerocomellus_ripariellus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11 à 14 μm x 4,5 à 5 μm, allongées-fusoïdes, longitudinalement striées (stries très fines et difficiles à voir).
 </t>
         </is>
       </c>
